--- a/biology/Médecine/Erotianus/Erotianus.xlsx
+++ b/biology/Médecine/Erotianus/Erotianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erotianus ou Érotien, grec ancien Ἐρωτιανός, est un grammairien ou médecin grec du Ier siècle de notre ère. Il vivait du temps de Néron.
 On a de lui un glossaire des œuvres d’Hippocrate, qui a été publié pour la première fois par Henri Estienne, dans le Dictionarium medicum (Paris, 1564, in-8°). Il a été plusieurs fois réimprimé depuis, notamment à Leipzig par Fréd. Franz (1780, in-8°).
@@ -513,7 +525,9 @@
           <t>Éditions numériques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'édition d'Estienne est en ligne.
 La numérisation d'e-rara est nettement plus lisible que celle de Gallica ; par contre elle comporte des pages manuscrites intercalaires en latin.
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Grand dictionnaire universel du XIXe siècle</t>
         </is>
